--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1549.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1549.xlsx
@@ -354,10 +354,10 @@
         <v>1.635556508098825</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.011079134971274</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1549.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1549.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.207456074480893</v>
+        <v>1.649903655052185</v>
       </c>
       <c r="B1">
-        <v>1.635556508098825</v>
+        <v>3.513938426971436</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.098756313323975</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.288067936897278</v>
       </c>
       <c r="E1">
-        <v>1.011079134971274</v>
+        <v>0.7553884983062744</v>
       </c>
     </row>
   </sheetData>
